--- a/etc/documentum/내화및물량/UAE FFF_마감물량 산출 근거.xlsx
+++ b/etc/documentum/내화및물량/UAE FFF_마감물량 산출 근거.xlsx
@@ -1,27 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MK\mQ\etc\documentum\내화및물량\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{111F90FE-8A78-4ED1-A335-54E5FE84B81D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12405"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Int Wall" sheetId="1" r:id="rId1"/>
     <sheet name="Door" sheetId="2" r:id="rId2"/>
     <sheet name="Window" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="991" uniqueCount="377">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1015" uniqueCount="386">
   <si>
     <t>RAD SEPARATION</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -636,9 +652,6 @@
     <t>_B08</t>
   </si>
   <si>
-    <t>NSD-2000X2200</t>
-  </si>
-  <si>
     <t>_B09</t>
   </si>
   <si>
@@ -1247,16 +1260,51 @@
   <si>
     <t>AW 2400xX1500 DG</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>90FSD-2500X3000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>90FSD-2500X3000(A)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>180FSD-2500X3000(A)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NSD-2500X3000(A)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NSD-2500X3000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>90FSD-2500X3000</t>
+  </si>
+  <si>
+    <t>90FSD-2500X3000(A)</t>
+  </si>
+  <si>
+    <t>180FSD-2500X3000(A)</t>
+  </si>
+  <si>
+    <t>NSD-2500X3000</t>
+  </si>
+  <si>
+    <t>NSD-2500X3000(A)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1300,6 +1348,14 @@
       <sz val="11"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
@@ -1354,7 +1410,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1383,6 +1439,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1664,32 +1723,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:T130"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A81" activePane="bottomLeft" state="frozen"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="C90" sqref="C90"/>
+      <selection pane="bottomLeft" activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" outlineLevelCol="1"/>
   <cols>
-    <col min="3" max="3" width="36.25" customWidth="1"/>
-    <col min="4" max="4" width="5.25" customWidth="1"/>
+    <col min="3" max="3" width="36.19921875" customWidth="1"/>
+    <col min="4" max="4" width="5.19921875" customWidth="1"/>
     <col min="5" max="5" width="11.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.375" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="6" max="6" width="4.3984375" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="7" max="9" width="0" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="10" max="10" width="4.75" style="3" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="10" max="10" width="4.69921875" style="3" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="11" max="11" width="9" style="4" collapsed="1"/>
     <col min="13" max="13" width="9" style="5"/>
-    <col min="15" max="15" width="16.75" customWidth="1"/>
-    <col min="16" max="16" width="9.625" customWidth="1"/>
-    <col min="17" max="17" width="5.625" customWidth="1"/>
-    <col min="18" max="18" width="11.875" customWidth="1"/>
+    <col min="15" max="15" width="16.69921875" customWidth="1"/>
+    <col min="16" max="16" width="9.59765625" customWidth="1"/>
+    <col min="17" max="17" width="5.59765625" customWidth="1"/>
+    <col min="18" max="18" width="11.8984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:20" ht="33.75">
+    <row r="2" spans="2:20" ht="32.4">
       <c r="D2" s="1" t="s">
         <v>0</v>
       </c>
@@ -7327,18 +7386,18 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B4:O202"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="B4:O206"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C90" sqref="C90"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="4" max="4" width="20.125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.25" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="21.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.09765625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.19921875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="21.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="2:15">
@@ -7364,7 +7423,7 @@
         <v>1</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>165</v>
+        <v>198</v>
       </c>
       <c r="I5" s="8"/>
       <c r="J5" s="8">
@@ -7372,7 +7431,7 @@
         <v>3</v>
       </c>
       <c r="M5" s="8" t="s">
-        <v>165</v>
+        <v>198</v>
       </c>
       <c r="N5" s="8"/>
       <c r="O5" s="8">
@@ -7394,20 +7453,20 @@
         <v>1</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>168</v>
+        <v>200</v>
       </c>
       <c r="I6" s="8"/>
       <c r="J6" s="8">
-        <f t="shared" ref="J6:J14" si="0">COUNTIF($D$5:$D$20,H6)</f>
-        <v>8</v>
+        <f t="shared" ref="J6:J18" si="0">COUNTIF($D$5:$D$20,H6)</f>
+        <v>6</v>
       </c>
       <c r="M6" s="8" t="s">
-        <v>168</v>
+        <v>200</v>
       </c>
       <c r="N6" s="8"/>
       <c r="O6" s="8">
         <f t="shared" ref="O6:O14" si="1">SUMIF($H$5:$H$202,M6,$J$5:$J$202)</f>
-        <v>33</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="2:15">
@@ -7424,7 +7483,7 @@
         <v>1</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>164</v>
+        <v>381</v>
       </c>
       <c r="I7" s="8"/>
       <c r="J7" s="8">
@@ -7432,12 +7491,12 @@
         <v>2</v>
       </c>
       <c r="M7" s="8" t="s">
-        <v>164</v>
+        <v>381</v>
       </c>
       <c r="N7" s="8"/>
       <c r="O7" s="8">
         <f t="shared" si="1"/>
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="2:15">
@@ -7454,20 +7513,20 @@
         <v>1</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="I8" s="8"/>
       <c r="J8" s="8">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M8" s="8" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="N8" s="8"/>
       <c r="O8" s="8">
         <f t="shared" si="1"/>
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="2:15">
@@ -7484,20 +7543,20 @@
         <v>1</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>173</v>
+        <v>193</v>
       </c>
       <c r="I9" s="8"/>
       <c r="J9" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M9" s="8" t="s">
-        <v>173</v>
+        <v>193</v>
       </c>
       <c r="N9" s="8"/>
       <c r="O9" s="8">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="2:15">
@@ -7514,7 +7573,7 @@
         <v>1</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>175</v>
+        <v>382</v>
       </c>
       <c r="I10" s="8"/>
       <c r="J10" s="8">
@@ -7522,12 +7581,12 @@
         <v>0</v>
       </c>
       <c r="M10" s="8" t="s">
-        <v>175</v>
+        <v>382</v>
       </c>
       <c r="N10" s="8"/>
       <c r="O10" s="8">
         <f t="shared" si="1"/>
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="2:15">
@@ -7544,20 +7603,20 @@
         <v>1</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="I11" s="8"/>
       <c r="J11" s="8">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M11" s="8" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="N11" s="8"/>
       <c r="O11" s="8">
         <f t="shared" si="1"/>
-        <v>24</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="2:15">
@@ -7574,7 +7633,7 @@
         <v>1</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="I12" s="8"/>
       <c r="J12" s="8">
@@ -7582,12 +7641,12 @@
         <v>0</v>
       </c>
       <c r="M12" s="8" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="N12" s="8"/>
       <c r="O12" s="8">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="2:15">
@@ -7595,7 +7654,7 @@
         <v>162</v>
       </c>
       <c r="C13" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D13" t="s">
         <v>168</v>
@@ -7604,7 +7663,7 @@
         <v>1</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>181</v>
+        <v>383</v>
       </c>
       <c r="I13" s="8"/>
       <c r="J13" s="8">
@@ -7612,12 +7671,12 @@
         <v>0</v>
       </c>
       <c r="M13" s="8" t="s">
-        <v>181</v>
+        <v>383</v>
       </c>
       <c r="N13" s="8"/>
       <c r="O13" s="8">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="2:15">
@@ -7625,7 +7684,7 @@
         <v>162</v>
       </c>
       <c r="C14" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D14" t="s">
         <v>168</v>
@@ -7634,7 +7693,7 @@
         <v>1</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>183</v>
+        <v>195</v>
       </c>
       <c r="I14" s="8"/>
       <c r="J14" s="8">
@@ -7642,12 +7701,12 @@
         <v>1</v>
       </c>
       <c r="M14" s="8" t="s">
-        <v>183</v>
+        <v>195</v>
       </c>
       <c r="N14" s="8"/>
       <c r="O14" s="8">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="2:15">
@@ -7655,12 +7714,28 @@
         <v>162</v>
       </c>
       <c r="C15" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D15" t="s">
         <v>168</v>
       </c>
       <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="H15" s="8" t="s">
+        <v>384</v>
+      </c>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M15" s="8" t="s">
+        <v>384</v>
+      </c>
+      <c r="N15" s="8"/>
+      <c r="O15" s="8">
+        <f t="shared" ref="O15:O18" si="2">SUMIF($H$5:$H$202,M15,$J$5:$J$202)</f>
         <v>1</v>
       </c>
     </row>
@@ -7669,35 +7744,67 @@
         <v>162</v>
       </c>
       <c r="C16" t="s">
-        <v>185</v>
-      </c>
-      <c r="D16" t="s">
-        <v>168</v>
+        <v>184</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>376</v>
       </c>
       <c r="E16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="2:10">
+      <c r="H16" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M16" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="N16" s="8"/>
+      <c r="O16" s="8">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:15">
       <c r="B17" t="s">
         <v>162</v>
       </c>
       <c r="C17" t="s">
-        <v>186</v>
-      </c>
-      <c r="D17" t="s">
-        <v>168</v>
+        <v>185</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>376</v>
       </c>
       <c r="E17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="2:10">
+      <c r="H17" s="8" t="s">
+        <v>385</v>
+      </c>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M17" s="8" t="s">
+        <v>385</v>
+      </c>
+      <c r="N17" s="8"/>
+      <c r="O17" s="8">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:15">
       <c r="B18" t="s">
         <v>162</v>
       </c>
       <c r="C18" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D18" t="s">
         <v>165</v>
@@ -7705,13 +7812,29 @@
       <c r="E18">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="2:10">
+      <c r="H18" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M18" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="N18" s="8"/>
+      <c r="O18" s="8">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="2:15">
       <c r="B19" t="s">
         <v>162</v>
       </c>
       <c r="C19" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D19" t="s">
         <v>168</v>
@@ -7720,37 +7843,37 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="2:10">
+    <row r="20" spans="2:15">
       <c r="B20" t="s">
         <v>162</v>
       </c>
       <c r="C20" t="s">
+        <v>188</v>
+      </c>
+      <c r="D20" t="s">
         <v>189</v>
       </c>
-      <c r="D20" t="s">
-        <v>190</v>
-      </c>
       <c r="E20">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="2:10">
+    <row r="21" spans="2:15">
       <c r="B21" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="22" spans="2:10">
+    <row r="22" spans="2:15">
       <c r="H22" s="8" t="str">
         <f>B23</f>
         <v>GF</v>
       </c>
     </row>
-    <row r="23" spans="2:10">
+    <row r="23" spans="2:15">
       <c r="B23" t="s">
+        <v>190</v>
+      </c>
+      <c r="C23" t="s">
         <v>191</v>
-      </c>
-      <c r="C23" t="s">
-        <v>192</v>
       </c>
       <c r="D23" t="s">
         <v>164</v>
@@ -7759,7 +7882,7 @@
         <v>1</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>165</v>
+        <v>198</v>
       </c>
       <c r="I23" s="8"/>
       <c r="J23" s="8">
@@ -7767,188 +7890,188 @@
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="2:10">
+    <row r="24" spans="2:15">
       <c r="B24" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C24" t="s">
-        <v>193</v>
-      </c>
-      <c r="D24" t="s">
-        <v>194</v>
+        <v>192</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>377</v>
       </c>
       <c r="E24">
         <v>1</v>
       </c>
       <c r="H24" s="8" t="s">
-        <v>168</v>
+        <v>200</v>
       </c>
       <c r="I24" s="8"/>
       <c r="J24" s="8">
-        <f t="shared" ref="J24:J32" si="2">COUNTIF($D$23:$D$114,H24)</f>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25" spans="2:10">
+        <f t="shared" ref="J24:J32" si="3">COUNTIF($D$23:$D$114,H24)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="2:15">
       <c r="B25" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C25" t="s">
+        <v>194</v>
+      </c>
+      <c r="D25" t="s">
         <v>195</v>
       </c>
-      <c r="D25" t="s">
-        <v>196</v>
-      </c>
       <c r="E25">
         <v>1</v>
       </c>
       <c r="H25" s="8" t="s">
-        <v>164</v>
+        <v>381</v>
       </c>
       <c r="I25" s="8"/>
       <c r="J25" s="8">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26" spans="2:10">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="2:15">
       <c r="B26" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C26" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D26" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E26">
         <v>1</v>
       </c>
       <c r="H26" s="8" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="I26" s="8"/>
       <c r="J26" s="8">
-        <f t="shared" si="2"/>
-        <v>19</v>
-      </c>
-    </row>
-    <row r="27" spans="2:10">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="2:15">
       <c r="B27" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C27" t="s">
+        <v>197</v>
+      </c>
+      <c r="D27" t="s">
         <v>198</v>
       </c>
-      <c r="D27" t="s">
-        <v>199</v>
-      </c>
       <c r="E27">
         <v>1</v>
       </c>
       <c r="H27" s="8" t="s">
-        <v>173</v>
+        <v>193</v>
       </c>
       <c r="I27" s="8"/>
       <c r="J27" s="8">
-        <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="28" spans="2:10">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="2:15">
       <c r="B28" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C28" t="s">
-        <v>200</v>
-      </c>
-      <c r="D28" t="s">
-        <v>201</v>
+        <v>199</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>376</v>
       </c>
       <c r="E28">
         <v>1</v>
       </c>
       <c r="H28" s="8" t="s">
-        <v>175</v>
+        <v>382</v>
       </c>
       <c r="I28" s="8"/>
       <c r="J28" s="8">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="29" spans="2:10">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="2:15">
       <c r="B29" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C29" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D29" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E29">
         <v>1</v>
       </c>
       <c r="H29" s="8" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="I29" s="8"/>
       <c r="J29" s="8">
-        <f t="shared" si="2"/>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="30" spans="2:10">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="2:15">
       <c r="B30" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C30" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D30" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E30">
         <v>1</v>
       </c>
       <c r="H30" s="8" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="I30" s="8"/>
       <c r="J30" s="8">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="2:10">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="2:15">
       <c r="B31" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C31" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D31" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E31">
         <v>1</v>
       </c>
       <c r="H31" s="8" t="s">
-        <v>181</v>
+        <v>383</v>
       </c>
       <c r="I31" s="8"/>
       <c r="J31" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="2:10">
+    <row r="32" spans="2:15">
       <c r="B32" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C32" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D32" t="s">
         <v>164</v>
@@ -7957,202 +8080,234 @@
         <v>1</v>
       </c>
       <c r="H32" s="8" t="s">
-        <v>183</v>
+        <v>195</v>
       </c>
       <c r="I32" s="8"/>
       <c r="J32" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="33" spans="2:10">
+      <c r="B33" t="s">
+        <v>190</v>
+      </c>
+      <c r="C33" t="s">
+        <v>205</v>
+      </c>
+      <c r="D33" t="s">
+        <v>198</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="H33" s="8" t="s">
+        <v>384</v>
+      </c>
+      <c r="I33" s="8"/>
+      <c r="J33" s="8">
+        <f t="shared" ref="J33:J36" si="4">COUNTIF($D$23:$D$114,H33)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:10">
+      <c r="B34" t="s">
+        <v>190</v>
+      </c>
+      <c r="C34" t="s">
+        <v>206</v>
+      </c>
+      <c r="D34" t="s">
+        <v>198</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="H34" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="I34" s="8"/>
+      <c r="J34" s="8">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="2:10">
+      <c r="B35" t="s">
+        <v>190</v>
+      </c>
+      <c r="C35" t="s">
+        <v>207</v>
+      </c>
+      <c r="D35" t="s">
+        <v>198</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="H35" s="8" t="s">
+        <v>385</v>
+      </c>
+      <c r="I35" s="8"/>
+      <c r="J35" s="8">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="2:10">
+      <c r="B36" t="s">
+        <v>190</v>
+      </c>
+      <c r="C36" t="s">
+        <v>208</v>
+      </c>
+      <c r="D36" t="s">
+        <v>198</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+      <c r="H36" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="I36" s="8"/>
+      <c r="J36" s="8">
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="2:5">
-      <c r="B33" t="s">
-        <v>191</v>
-      </c>
-      <c r="C33" t="s">
-        <v>206</v>
-      </c>
-      <c r="D33" t="s">
-        <v>199</v>
-      </c>
-      <c r="E33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="2:5">
-      <c r="B34" t="s">
-        <v>191</v>
-      </c>
-      <c r="C34" t="s">
-        <v>207</v>
-      </c>
-      <c r="D34" t="s">
-        <v>199</v>
-      </c>
-      <c r="E34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="2:5">
-      <c r="B35" t="s">
-        <v>191</v>
-      </c>
-      <c r="C35" t="s">
-        <v>208</v>
-      </c>
-      <c r="D35" t="s">
-        <v>199</v>
-      </c>
-      <c r="E35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="2:5">
-      <c r="B36" t="s">
-        <v>191</v>
-      </c>
-      <c r="C36" t="s">
+    <row r="37" spans="2:10">
+      <c r="B37" t="s">
+        <v>190</v>
+      </c>
+      <c r="C37" t="s">
         <v>209</v>
       </c>
-      <c r="D36" t="s">
-        <v>199</v>
-      </c>
-      <c r="E36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="2:5">
-      <c r="B37" t="s">
-        <v>191</v>
-      </c>
-      <c r="C37" t="s">
+      <c r="D37" t="s">
+        <v>198</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="2:10">
+      <c r="B38" t="s">
+        <v>190</v>
+      </c>
+      <c r="C38" t="s">
         <v>210</v>
       </c>
-      <c r="D37" t="s">
-        <v>199</v>
-      </c>
-      <c r="E37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="2:5">
-      <c r="B38" t="s">
-        <v>191</v>
-      </c>
-      <c r="C38" t="s">
+      <c r="D38" t="s">
+        <v>198</v>
+      </c>
+      <c r="E38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="2:10">
+      <c r="B39" t="s">
+        <v>190</v>
+      </c>
+      <c r="C39" t="s">
         <v>211</v>
       </c>
-      <c r="D38" t="s">
-        <v>199</v>
-      </c>
-      <c r="E38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="2:5">
-      <c r="B39" t="s">
-        <v>191</v>
-      </c>
-      <c r="C39" t="s">
+      <c r="D39" t="s">
+        <v>198</v>
+      </c>
+      <c r="E39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="2:10">
+      <c r="B40" t="s">
+        <v>190</v>
+      </c>
+      <c r="C40" t="s">
         <v>212</v>
       </c>
-      <c r="D39" t="s">
-        <v>199</v>
-      </c>
-      <c r="E39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="2:5">
-      <c r="B40" t="s">
-        <v>191</v>
-      </c>
-      <c r="C40" t="s">
+      <c r="D40" t="s">
+        <v>198</v>
+      </c>
+      <c r="E40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="2:10">
+      <c r="B41" t="s">
+        <v>190</v>
+      </c>
+      <c r="C41" t="s">
         <v>213</v>
       </c>
-      <c r="D40" t="s">
-        <v>199</v>
-      </c>
-      <c r="E40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="2:5">
-      <c r="B41" t="s">
-        <v>191</v>
-      </c>
-      <c r="C41" t="s">
+      <c r="D41" t="s">
+        <v>195</v>
+      </c>
+      <c r="E41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="2:10">
+      <c r="B42" t="s">
+        <v>190</v>
+      </c>
+      <c r="C42" t="s">
         <v>214</v>
       </c>
-      <c r="D41" t="s">
-        <v>196</v>
-      </c>
-      <c r="E41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="2:5">
-      <c r="B42" t="s">
-        <v>191</v>
-      </c>
-      <c r="C42" t="s">
+      <c r="D42" t="s">
+        <v>200</v>
+      </c>
+      <c r="E42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="2:10">
+      <c r="B43" t="s">
+        <v>190</v>
+      </c>
+      <c r="C43" t="s">
         <v>215</v>
       </c>
-      <c r="D42" t="s">
-        <v>201</v>
-      </c>
-      <c r="E42">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="2:5">
-      <c r="B43" t="s">
-        <v>191</v>
-      </c>
-      <c r="C43" t="s">
+      <c r="D43" t="s">
+        <v>200</v>
+      </c>
+      <c r="E43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="2:10">
+      <c r="B44" t="s">
+        <v>190</v>
+      </c>
+      <c r="C44" t="s">
         <v>216</v>
       </c>
-      <c r="D43" t="s">
-        <v>201</v>
-      </c>
-      <c r="E43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="2:5">
-      <c r="B44" t="s">
-        <v>191</v>
-      </c>
-      <c r="C44" t="s">
+      <c r="D44" t="s">
+        <v>198</v>
+      </c>
+      <c r="E44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="2:10">
+      <c r="B45" t="s">
+        <v>190</v>
+      </c>
+      <c r="C45" t="s">
         <v>217</v>
       </c>
-      <c r="D44" t="s">
-        <v>199</v>
-      </c>
-      <c r="E44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="2:5">
-      <c r="B45" t="s">
-        <v>191</v>
-      </c>
-      <c r="C45" t="s">
+      <c r="D45" s="5" t="s">
+        <v>378</v>
+      </c>
+      <c r="E45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="2:10">
+      <c r="B46" t="s">
+        <v>190</v>
+      </c>
+      <c r="C46" t="s">
         <v>218</v>
-      </c>
-      <c r="D45" t="s">
-        <v>175</v>
-      </c>
-      <c r="E45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="2:5">
-      <c r="B46" t="s">
-        <v>191</v>
-      </c>
-      <c r="C46" t="s">
-        <v>219</v>
       </c>
       <c r="D46" t="s">
         <v>175</v>
@@ -8161,29 +8316,29 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="2:5">
+    <row r="47" spans="2:10">
       <c r="B47" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C47" t="s">
+        <v>219</v>
+      </c>
+      <c r="D47" t="s">
+        <v>195</v>
+      </c>
+      <c r="E47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="2:10">
+      <c r="B48" t="s">
+        <v>190</v>
+      </c>
+      <c r="C48" t="s">
         <v>220</v>
       </c>
-      <c r="D47" t="s">
-        <v>196</v>
-      </c>
-      <c r="E47">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="2:5">
-      <c r="B48" t="s">
-        <v>191</v>
-      </c>
-      <c r="C48" t="s">
-        <v>221</v>
-      </c>
-      <c r="D48" t="s">
-        <v>175</v>
+      <c r="D48" s="5" t="s">
+        <v>378</v>
       </c>
       <c r="E48">
         <v>1</v>
@@ -8191,13 +8346,13 @@
     </row>
     <row r="49" spans="2:5">
       <c r="B49" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C49" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D49" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E49">
         <v>1</v>
@@ -8205,13 +8360,13 @@
     </row>
     <row r="50" spans="2:5">
       <c r="B50" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C50" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D50" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E50">
         <v>1</v>
@@ -8219,13 +8374,13 @@
     </row>
     <row r="51" spans="2:5">
       <c r="B51" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C51" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D51" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E51">
         <v>1</v>
@@ -8233,13 +8388,13 @@
     </row>
     <row r="52" spans="2:5">
       <c r="B52" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C52" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D52" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E52">
         <v>1</v>
@@ -8247,13 +8402,13 @@
     </row>
     <row r="53" spans="2:5">
       <c r="B53" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C53" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D53" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E53">
         <v>1</v>
@@ -8261,13 +8416,13 @@
     </row>
     <row r="54" spans="2:5">
       <c r="B54" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C54" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D54" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E54">
         <v>1</v>
@@ -8275,13 +8430,13 @@
     </row>
     <row r="55" spans="2:5">
       <c r="B55" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C55" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D55" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E55">
         <v>1</v>
@@ -8289,13 +8444,13 @@
     </row>
     <row r="56" spans="2:5">
       <c r="B56" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C56" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D56" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E56">
         <v>1</v>
@@ -8303,13 +8458,13 @@
     </row>
     <row r="57" spans="2:5">
       <c r="B57" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C57" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D57" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E57">
         <v>1</v>
@@ -8317,13 +8472,13 @@
     </row>
     <row r="58" spans="2:5">
       <c r="B58" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C58" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D58" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E58">
         <v>1</v>
@@ -8331,13 +8486,13 @@
     </row>
     <row r="59" spans="2:5">
       <c r="B59" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C59" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D59" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E59">
         <v>1</v>
@@ -8345,13 +8500,13 @@
     </row>
     <row r="60" spans="2:5">
       <c r="B60" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C60" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D60" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E60">
         <v>1</v>
@@ -8359,10 +8514,10 @@
     </row>
     <row r="61" spans="2:5">
       <c r="B61" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C61" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D61" t="s">
         <v>164</v>
@@ -8373,13 +8528,13 @@
     </row>
     <row r="62" spans="2:5">
       <c r="B62" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C62" t="s">
-        <v>235</v>
-      </c>
-      <c r="D62" t="s">
-        <v>194</v>
+        <v>234</v>
+      </c>
+      <c r="D62" s="5" t="s">
+        <v>377</v>
       </c>
       <c r="E62">
         <v>1</v>
@@ -8387,13 +8542,13 @@
     </row>
     <row r="63" spans="2:5">
       <c r="B63" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C63" t="s">
-        <v>236</v>
-      </c>
-      <c r="D63" t="s">
-        <v>194</v>
+        <v>235</v>
+      </c>
+      <c r="D63" s="5" t="s">
+        <v>377</v>
       </c>
       <c r="E63">
         <v>1</v>
@@ -8401,10 +8556,10 @@
     </row>
     <row r="64" spans="2:5">
       <c r="B64" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C64" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D64" t="s">
         <v>164</v>
@@ -8415,13 +8570,13 @@
     </row>
     <row r="65" spans="2:5">
       <c r="B65" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C65" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D65" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E65">
         <v>1</v>
@@ -8429,13 +8584,13 @@
     </row>
     <row r="66" spans="2:5">
       <c r="B66" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C66" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D66" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E66">
         <v>1</v>
@@ -8443,13 +8598,13 @@
     </row>
     <row r="67" spans="2:5">
       <c r="B67" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C67" t="s">
-        <v>240</v>
-      </c>
-      <c r="D67" t="s">
-        <v>194</v>
+        <v>239</v>
+      </c>
+      <c r="D67" s="5" t="s">
+        <v>377</v>
       </c>
       <c r="E67">
         <v>1</v>
@@ -8457,13 +8612,13 @@
     </row>
     <row r="68" spans="2:5">
       <c r="B68" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C68" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D68" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E68">
         <v>1</v>
@@ -8471,10 +8626,10 @@
     </row>
     <row r="69" spans="2:5">
       <c r="B69" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C69" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D69" t="s">
         <v>175</v>
@@ -8485,13 +8640,13 @@
     </row>
     <row r="70" spans="2:5">
       <c r="B70" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C70" t="s">
-        <v>243</v>
-      </c>
-      <c r="D70" t="s">
-        <v>194</v>
+        <v>242</v>
+      </c>
+      <c r="D70" s="5" t="s">
+        <v>377</v>
       </c>
       <c r="E70">
         <v>1</v>
@@ -8499,13 +8654,13 @@
     </row>
     <row r="71" spans="2:5">
       <c r="B71" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C71" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D71" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E71">
         <v>1</v>
@@ -8513,13 +8668,13 @@
     </row>
     <row r="72" spans="2:5">
       <c r="B72" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C72" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D72" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E72">
         <v>1</v>
@@ -8527,13 +8682,13 @@
     </row>
     <row r="73" spans="2:5">
       <c r="B73" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C73" t="s">
-        <v>246</v>
-      </c>
-      <c r="D73" t="s">
-        <v>194</v>
+        <v>245</v>
+      </c>
+      <c r="D73" s="5" t="s">
+        <v>377</v>
       </c>
       <c r="E73">
         <v>1</v>
@@ -8541,10 +8696,10 @@
     </row>
     <row r="74" spans="2:5">
       <c r="B74" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C74" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D74" t="s">
         <v>173</v>
@@ -8555,13 +8710,13 @@
     </row>
     <row r="75" spans="2:5">
       <c r="B75" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C75" t="s">
-        <v>248</v>
-      </c>
-      <c r="D75" t="s">
-        <v>201</v>
+        <v>247</v>
+      </c>
+      <c r="D75" s="5" t="s">
+        <v>376</v>
       </c>
       <c r="E75">
         <v>1</v>
@@ -8569,13 +8724,13 @@
     </row>
     <row r="76" spans="2:5">
       <c r="B76" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C76" t="s">
-        <v>249</v>
-      </c>
-      <c r="D76" t="s">
-        <v>201</v>
+        <v>248</v>
+      </c>
+      <c r="D76" s="5" t="s">
+        <v>376</v>
       </c>
       <c r="E76">
         <v>1</v>
@@ -8583,13 +8738,13 @@
     </row>
     <row r="77" spans="2:5">
       <c r="B77" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C77" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D77" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E77">
         <v>1</v>
@@ -8597,13 +8752,13 @@
     </row>
     <row r="78" spans="2:5">
       <c r="B78" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C78" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D78" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E78">
         <v>1</v>
@@ -8611,13 +8766,13 @@
     </row>
     <row r="79" spans="2:5">
       <c r="B79" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C79" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D79" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E79">
         <v>1</v>
@@ -8625,13 +8780,13 @@
     </row>
     <row r="80" spans="2:5">
       <c r="B80" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C80" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D80" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E80">
         <v>1</v>
@@ -8639,13 +8794,13 @@
     </row>
     <row r="81" spans="2:5">
       <c r="B81" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C81" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D81" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E81">
         <v>1</v>
@@ -8653,13 +8808,13 @@
     </row>
     <row r="82" spans="2:5">
       <c r="B82" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C82" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D82" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E82">
         <v>1</v>
@@ -8667,13 +8822,13 @@
     </row>
     <row r="83" spans="2:5">
       <c r="B83" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C83" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D83" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E83">
         <v>1</v>
@@ -8681,13 +8836,13 @@
     </row>
     <row r="84" spans="2:5">
       <c r="B84" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C84" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D84" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E84">
         <v>1</v>
@@ -8695,13 +8850,13 @@
     </row>
     <row r="85" spans="2:5">
       <c r="B85" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C85" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D85" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E85">
         <v>1</v>
@@ -8709,13 +8864,13 @@
     </row>
     <row r="86" spans="2:5">
       <c r="B86" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C86" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D86" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E86">
         <v>1</v>
@@ -8723,13 +8878,13 @@
     </row>
     <row r="87" spans="2:5">
       <c r="B87" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C87" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D87" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E87">
         <v>1</v>
@@ -8737,13 +8892,13 @@
     </row>
     <row r="88" spans="2:5">
       <c r="B88" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C88" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D88" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E88">
         <v>1</v>
@@ -8751,13 +8906,13 @@
     </row>
     <row r="89" spans="2:5">
       <c r="B89" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C89" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D89" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E89">
         <v>1</v>
@@ -8765,13 +8920,13 @@
     </row>
     <row r="90" spans="2:5">
       <c r="B90" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C90" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D90" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E90">
         <v>1</v>
@@ -8779,13 +8934,13 @@
     </row>
     <row r="91" spans="2:5">
       <c r="B91" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C91" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D91" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E91">
         <v>1</v>
@@ -8793,13 +8948,13 @@
     </row>
     <row r="92" spans="2:5">
       <c r="B92" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C92" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D92" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E92">
         <v>1</v>
@@ -8807,10 +8962,10 @@
     </row>
     <row r="93" spans="2:5">
       <c r="B93" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C93" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D93" t="s">
         <v>173</v>
@@ -8821,10 +8976,10 @@
     </row>
     <row r="94" spans="2:5">
       <c r="B94" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C94" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D94" t="s">
         <v>173</v>
@@ -8835,13 +8990,13 @@
     </row>
     <row r="95" spans="2:5">
       <c r="B95" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C95" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D95" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E95">
         <v>1</v>
@@ -8849,10 +9004,10 @@
     </row>
     <row r="96" spans="2:5">
       <c r="B96" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C96" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D96" t="s">
         <v>173</v>
@@ -8863,10 +9018,10 @@
     </row>
     <row r="97" spans="2:5">
       <c r="B97" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C97" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D97" t="s">
         <v>164</v>
@@ -8877,10 +9032,10 @@
     </row>
     <row r="98" spans="2:5">
       <c r="B98" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C98" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D98" t="s">
         <v>164</v>
@@ -8891,10 +9046,10 @@
     </row>
     <row r="99" spans="2:5">
       <c r="B99" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C99" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D99" t="s">
         <v>164</v>
@@ -8905,10 +9060,10 @@
     </row>
     <row r="100" spans="2:5">
       <c r="B100" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C100" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D100" t="s">
         <v>173</v>
@@ -8919,10 +9074,10 @@
     </row>
     <row r="101" spans="2:5">
       <c r="B101" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C101" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D101" t="s">
         <v>164</v>
@@ -8933,13 +9088,13 @@
     </row>
     <row r="102" spans="2:5">
       <c r="B102" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C102" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D102" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E102">
         <v>1</v>
@@ -8947,13 +9102,13 @@
     </row>
     <row r="103" spans="2:5">
       <c r="B103" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C103" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D103" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E103">
         <v>1</v>
@@ -8961,13 +9116,13 @@
     </row>
     <row r="104" spans="2:5">
       <c r="B104" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C104" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D104" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E104">
         <v>1</v>
@@ -8975,13 +9130,13 @@
     </row>
     <row r="105" spans="2:5">
       <c r="B105" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C105" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D105" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E105">
         <v>1</v>
@@ -8989,13 +9144,13 @@
     </row>
     <row r="106" spans="2:5">
       <c r="B106" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C106" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D106" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E106">
         <v>1</v>
@@ -9003,13 +9158,13 @@
     </row>
     <row r="107" spans="2:5">
       <c r="B107" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C107" t="s">
-        <v>280</v>
-      </c>
-      <c r="D107" t="s">
-        <v>181</v>
+        <v>279</v>
+      </c>
+      <c r="D107" s="5" t="s">
+        <v>379</v>
       </c>
       <c r="E107">
         <v>1</v>
@@ -9017,13 +9172,13 @@
     </row>
     <row r="108" spans="2:5">
       <c r="B108" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C108" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D108" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E108">
         <v>1</v>
@@ -9031,10 +9186,10 @@
     </row>
     <row r="109" spans="2:5">
       <c r="B109" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C109" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D109" t="s">
         <v>164</v>
@@ -9045,13 +9200,13 @@
     </row>
     <row r="110" spans="2:5">
       <c r="B110" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C110" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D110" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E110">
         <v>1</v>
@@ -9059,13 +9214,13 @@
     </row>
     <row r="111" spans="2:5">
       <c r="B111" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C111" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D111" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E111">
         <v>1</v>
@@ -9073,10 +9228,10 @@
     </row>
     <row r="112" spans="2:5">
       <c r="B112" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C112" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D112" t="s">
         <v>164</v>
@@ -9087,13 +9242,13 @@
     </row>
     <row r="113" spans="2:10">
       <c r="B113" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C113" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D113" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E113">
         <v>1</v>
@@ -9101,13 +9256,13 @@
     </row>
     <row r="114" spans="2:10">
       <c r="B114" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C114" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D114" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E114">
         <v>1</v>
@@ -9121,19 +9276,19 @@
     </row>
     <row r="117" spans="2:10">
       <c r="B117" t="s">
+        <v>287</v>
+      </c>
+      <c r="C117" t="s">
         <v>288</v>
       </c>
-      <c r="C117" t="s">
-        <v>289</v>
-      </c>
-      <c r="D117" t="s">
-        <v>179</v>
+      <c r="D117" s="5" t="s">
+        <v>380</v>
       </c>
       <c r="E117">
         <v>1</v>
       </c>
       <c r="H117" s="8" t="s">
-        <v>165</v>
+        <v>198</v>
       </c>
       <c r="I117" s="8"/>
       <c r="J117" s="8">
@@ -9143,449 +9298,481 @@
     </row>
     <row r="118" spans="2:10">
       <c r="B118" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C118" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D118" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E118">
         <v>1</v>
       </c>
       <c r="H118" s="8" t="s">
-        <v>168</v>
+        <v>200</v>
       </c>
       <c r="I118" s="8"/>
       <c r="J118" s="8">
-        <f t="shared" ref="J118:J126" si="3">COUNTIF($D$117:$D$154,H118)</f>
-        <v>15</v>
+        <f t="shared" ref="J118:J126" si="5">COUNTIF($D$117:$D$154,H118)</f>
+        <v>11</v>
       </c>
     </row>
     <row r="119" spans="2:10">
       <c r="B119" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C119" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D119" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E119">
         <v>1</v>
       </c>
       <c r="H119" s="8" t="s">
-        <v>164</v>
+        <v>381</v>
       </c>
       <c r="I119" s="8"/>
       <c r="J119" s="8">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>4</v>
       </c>
     </row>
     <row r="120" spans="2:10">
       <c r="B120" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C120" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D120" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E120">
         <v>1</v>
       </c>
       <c r="H120" s="8" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="I120" s="8"/>
       <c r="J120" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="121" spans="2:10">
       <c r="B121" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C121" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D121" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E121">
         <v>1</v>
       </c>
       <c r="H121" s="8" t="s">
-        <v>173</v>
+        <v>193</v>
       </c>
       <c r="I121" s="8"/>
       <c r="J121" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="122" spans="2:10">
       <c r="B122" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C122" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D122" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E122">
         <v>1</v>
       </c>
       <c r="H122" s="8" t="s">
-        <v>175</v>
+        <v>382</v>
       </c>
       <c r="I122" s="8"/>
       <c r="J122" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="123" spans="2:10">
       <c r="B123" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C123" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D123" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E123">
         <v>1</v>
       </c>
       <c r="H123" s="8" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="I123" s="8"/>
       <c r="J123" s="8">
-        <f t="shared" si="3"/>
-        <v>5</v>
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="2:10">
       <c r="B124" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C124" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D124" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E124">
         <v>1</v>
       </c>
       <c r="H124" s="8" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="I124" s="8"/>
       <c r="J124" s="8">
-        <f t="shared" si="3"/>
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="2:10">
       <c r="B125" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C125" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D125" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E125">
         <v>1</v>
       </c>
       <c r="H125" s="8" t="s">
-        <v>181</v>
+        <v>383</v>
       </c>
       <c r="I125" s="8"/>
       <c r="J125" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="126" spans="2:10">
       <c r="B126" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C126" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D126" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E126">
         <v>1</v>
       </c>
       <c r="H126" s="8" t="s">
-        <v>183</v>
+        <v>195</v>
       </c>
       <c r="I126" s="8"/>
       <c r="J126" s="8">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>5</v>
       </c>
     </row>
     <row r="127" spans="2:10">
       <c r="B127" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C127" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D127" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E127">
+        <v>1</v>
+      </c>
+      <c r="H127" s="8" t="s">
+        <v>384</v>
+      </c>
+      <c r="I127" s="8"/>
+      <c r="J127" s="8">
+        <f t="shared" ref="J127:J130" si="6">COUNTIF($D$117:$D$154,H127)</f>
         <v>1</v>
       </c>
     </row>
     <row r="128" spans="2:10">
       <c r="B128" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C128" t="s">
+        <v>299</v>
+      </c>
+      <c r="D128" t="s">
+        <v>198</v>
+      </c>
+      <c r="E128">
+        <v>1</v>
+      </c>
+      <c r="H128" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="I128" s="8"/>
+      <c r="J128" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="2:10">
+      <c r="B129" t="s">
+        <v>287</v>
+      </c>
+      <c r="C129" t="s">
         <v>300</v>
       </c>
-      <c r="D128" t="s">
-        <v>199</v>
-      </c>
-      <c r="E128">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="129" spans="2:5">
-      <c r="B129" t="s">
-        <v>288</v>
-      </c>
-      <c r="C129" t="s">
+      <c r="D129" t="s">
+        <v>200</v>
+      </c>
+      <c r="E129">
+        <v>1</v>
+      </c>
+      <c r="H129" s="8" t="s">
+        <v>385</v>
+      </c>
+      <c r="I129" s="8"/>
+      <c r="J129" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="2:10">
+      <c r="B130" t="s">
+        <v>287</v>
+      </c>
+      <c r="C130" t="s">
         <v>301</v>
       </c>
-      <c r="D129" t="s">
-        <v>201</v>
-      </c>
-      <c r="E129">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="130" spans="2:5">
-      <c r="B130" t="s">
-        <v>288</v>
-      </c>
-      <c r="C130" t="s">
+      <c r="D130" t="s">
+        <v>200</v>
+      </c>
+      <c r="E130">
+        <v>1</v>
+      </c>
+      <c r="H130" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="I130" s="8"/>
+      <c r="J130" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="2:10">
+      <c r="B131" t="s">
+        <v>287</v>
+      </c>
+      <c r="C131" t="s">
         <v>302</v>
       </c>
-      <c r="D130" t="s">
-        <v>201</v>
-      </c>
-      <c r="E130">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="131" spans="2:5">
-      <c r="B131" t="s">
-        <v>288</v>
-      </c>
-      <c r="C131" t="s">
+      <c r="D131" t="s">
+        <v>200</v>
+      </c>
+      <c r="E131">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="2:10">
+      <c r="B132" t="s">
+        <v>287</v>
+      </c>
+      <c r="C132" t="s">
         <v>303</v>
       </c>
-      <c r="D131" t="s">
-        <v>201</v>
-      </c>
-      <c r="E131">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="132" spans="2:5">
-      <c r="B132" t="s">
-        <v>288</v>
-      </c>
-      <c r="C132" t="s">
+      <c r="D132" t="s">
+        <v>200</v>
+      </c>
+      <c r="E132">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="2:10">
+      <c r="B133" t="s">
+        <v>287</v>
+      </c>
+      <c r="C133" t="s">
         <v>304</v>
       </c>
-      <c r="D132" t="s">
-        <v>201</v>
-      </c>
-      <c r="E132">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="133" spans="2:5">
-      <c r="B133" t="s">
-        <v>288</v>
-      </c>
-      <c r="C133" t="s">
+      <c r="D133" t="s">
+        <v>200</v>
+      </c>
+      <c r="E133">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="2:10">
+      <c r="B134" t="s">
+        <v>287</v>
+      </c>
+      <c r="C134" t="s">
         <v>305</v>
       </c>
-      <c r="D133" t="s">
-        <v>201</v>
-      </c>
-      <c r="E133">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="134" spans="2:5">
-      <c r="B134" t="s">
-        <v>288</v>
-      </c>
-      <c r="C134" t="s">
+      <c r="D134" s="5" t="s">
+        <v>376</v>
+      </c>
+      <c r="E134">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="2:10">
+      <c r="B135" t="s">
+        <v>287</v>
+      </c>
+      <c r="C135" t="s">
         <v>306</v>
       </c>
-      <c r="D134" t="s">
-        <v>201</v>
-      </c>
-      <c r="E134">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="135" spans="2:5">
-      <c r="B135" t="s">
-        <v>288</v>
-      </c>
-      <c r="C135" t="s">
+      <c r="D135" t="s">
+        <v>198</v>
+      </c>
+      <c r="E135">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="2:10">
+      <c r="B136" t="s">
+        <v>287</v>
+      </c>
+      <c r="C136" t="s">
         <v>307</v>
       </c>
-      <c r="D135" t="s">
-        <v>199</v>
-      </c>
-      <c r="E135">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="136" spans="2:5">
-      <c r="B136" t="s">
-        <v>288</v>
-      </c>
-      <c r="C136" t="s">
+      <c r="D136" t="s">
+        <v>200</v>
+      </c>
+      <c r="E136">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="2:10">
+      <c r="B137" t="s">
+        <v>287</v>
+      </c>
+      <c r="C137" t="s">
         <v>308</v>
       </c>
-      <c r="D136" t="s">
-        <v>201</v>
-      </c>
-      <c r="E136">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="137" spans="2:5">
-      <c r="B137" t="s">
-        <v>288</v>
-      </c>
-      <c r="C137" t="s">
+      <c r="D137" s="5" t="s">
+        <v>376</v>
+      </c>
+      <c r="E137">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="2:10">
+      <c r="B138" t="s">
+        <v>287</v>
+      </c>
+      <c r="C138" t="s">
         <v>309</v>
       </c>
-      <c r="D137" t="s">
-        <v>201</v>
-      </c>
-      <c r="E137">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="138" spans="2:5">
-      <c r="B138" t="s">
-        <v>288</v>
-      </c>
-      <c r="C138" t="s">
+      <c r="D138" s="5" t="s">
+        <v>376</v>
+      </c>
+      <c r="E138">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="2:10">
+      <c r="B139" t="s">
+        <v>287</v>
+      </c>
+      <c r="C139" t="s">
         <v>310</v>
       </c>
-      <c r="D138" t="s">
-        <v>201</v>
-      </c>
-      <c r="E138">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="139" spans="2:5">
-      <c r="B139" t="s">
-        <v>288</v>
-      </c>
-      <c r="C139" t="s">
+      <c r="D139" t="s">
+        <v>200</v>
+      </c>
+      <c r="E139">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="2:10">
+      <c r="B140" t="s">
+        <v>287</v>
+      </c>
+      <c r="C140" t="s">
         <v>311</v>
       </c>
-      <c r="D139" t="s">
-        <v>201</v>
-      </c>
-      <c r="E139">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="140" spans="2:5">
-      <c r="B140" t="s">
-        <v>288</v>
-      </c>
-      <c r="C140" t="s">
+      <c r="D140" t="s">
+        <v>195</v>
+      </c>
+      <c r="E140">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="2:10">
+      <c r="B141" t="s">
+        <v>287</v>
+      </c>
+      <c r="C141" t="s">
         <v>312</v>
       </c>
-      <c r="D140" t="s">
-        <v>196</v>
-      </c>
-      <c r="E140">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="141" spans="2:5">
-      <c r="B141" t="s">
-        <v>288</v>
-      </c>
-      <c r="C141" t="s">
+      <c r="D141" t="s">
+        <v>198</v>
+      </c>
+      <c r="E141">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="2:10">
+      <c r="B142" t="s">
+        <v>287</v>
+      </c>
+      <c r="C142" t="s">
         <v>313</v>
       </c>
-      <c r="D141" t="s">
-        <v>199</v>
-      </c>
-      <c r="E141">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="142" spans="2:5">
-      <c r="B142" t="s">
-        <v>288</v>
-      </c>
-      <c r="C142" t="s">
+      <c r="D142" t="s">
+        <v>195</v>
+      </c>
+      <c r="E142">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="2:10">
+      <c r="B143" t="s">
+        <v>287</v>
+      </c>
+      <c r="C143" t="s">
         <v>314</v>
       </c>
-      <c r="D142" t="s">
-        <v>196</v>
-      </c>
-      <c r="E142">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="143" spans="2:5">
-      <c r="B143" t="s">
-        <v>288</v>
-      </c>
-      <c r="C143" t="s">
+      <c r="D143" t="s">
+        <v>195</v>
+      </c>
+      <c r="E143">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="2:10">
+      <c r="B144" t="s">
+        <v>287</v>
+      </c>
+      <c r="C144" t="s">
         <v>315</v>
       </c>
-      <c r="D143" t="s">
-        <v>196</v>
-      </c>
-      <c r="E143">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="144" spans="2:5">
-      <c r="B144" t="s">
-        <v>288</v>
-      </c>
-      <c r="C144" t="s">
-        <v>316</v>
-      </c>
       <c r="D144" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E144">
         <v>1</v>
@@ -9593,13 +9780,13 @@
     </row>
     <row r="145" spans="2:10">
       <c r="B145" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C145" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D145" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E145">
         <v>1</v>
@@ -9607,13 +9794,13 @@
     </row>
     <row r="146" spans="2:10">
       <c r="B146" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C146" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D146" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E146">
         <v>1</v>
@@ -9621,13 +9808,13 @@
     </row>
     <row r="147" spans="2:10">
       <c r="B147" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C147" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D147" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E147">
         <v>1</v>
@@ -9635,13 +9822,13 @@
     </row>
     <row r="148" spans="2:10">
       <c r="B148" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C148" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D148" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E148">
         <v>1</v>
@@ -9649,13 +9836,13 @@
     </row>
     <row r="149" spans="2:10">
       <c r="B149" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C149" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D149" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E149">
         <v>1</v>
@@ -9663,13 +9850,13 @@
     </row>
     <row r="150" spans="2:10">
       <c r="B150" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C150" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D150" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E150">
         <v>1</v>
@@ -9677,13 +9864,13 @@
     </row>
     <row r="151" spans="2:10">
       <c r="B151" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C151" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D151" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E151">
         <v>1</v>
@@ -9691,13 +9878,13 @@
     </row>
     <row r="152" spans="2:10">
       <c r="B152" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C152" t="s">
-        <v>324</v>
-      </c>
-      <c r="D152" t="s">
-        <v>201</v>
+        <v>323</v>
+      </c>
+      <c r="D152" s="5" t="s">
+        <v>376</v>
       </c>
       <c r="E152">
         <v>1</v>
@@ -9705,13 +9892,13 @@
     </row>
     <row r="153" spans="2:10">
       <c r="B153" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C153" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D153" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E153">
         <v>1</v>
@@ -9719,13 +9906,13 @@
     </row>
     <row r="154" spans="2:10">
       <c r="B154" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C154" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D154" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E154">
         <v>1</v>
@@ -9739,10 +9926,10 @@
     </row>
     <row r="157" spans="2:10">
       <c r="B157" t="s">
+        <v>326</v>
+      </c>
+      <c r="C157" t="s">
         <v>327</v>
-      </c>
-      <c r="C157" t="s">
-        <v>328</v>
       </c>
       <c r="D157" t="s">
         <v>164</v>
@@ -9751,7 +9938,7 @@
         <v>1</v>
       </c>
       <c r="H157" s="8" t="s">
-        <v>165</v>
+        <v>198</v>
       </c>
       <c r="I157" s="8"/>
       <c r="J157" s="8">
@@ -9761,10 +9948,10 @@
     </row>
     <row r="158" spans="2:10">
       <c r="B158" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C158" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D158" t="s">
         <v>164</v>
@@ -9773,20 +9960,20 @@
         <v>1</v>
       </c>
       <c r="H158" s="8" t="s">
-        <v>168</v>
+        <v>200</v>
       </c>
       <c r="I158" s="8"/>
       <c r="J158" s="8">
-        <f t="shared" ref="J158:J166" si="4">COUNTIF($D$157:$D$189,H158)</f>
+        <f t="shared" ref="J158:J166" si="7">COUNTIF($D$157:$D$189,H158)</f>
         <v>2</v>
       </c>
     </row>
     <row r="159" spans="2:10">
       <c r="B159" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C159" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D159" t="s">
         <v>164</v>
@@ -9795,20 +9982,20 @@
         <v>1</v>
       </c>
       <c r="H159" s="8" t="s">
-        <v>164</v>
+        <v>381</v>
       </c>
       <c r="I159" s="8"/>
       <c r="J159" s="8">
-        <f t="shared" si="4"/>
-        <v>6</v>
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="2:10">
       <c r="B160" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C160" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D160" t="s">
         <v>164</v>
@@ -9817,20 +10004,20 @@
         <v>1</v>
       </c>
       <c r="H160" s="8" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="I160" s="8"/>
       <c r="J160" s="8">
-        <f t="shared" si="4"/>
-        <v>2</v>
+        <f t="shared" si="7"/>
+        <v>6</v>
       </c>
     </row>
     <row r="161" spans="2:10">
       <c r="B161" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C161" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D161" t="s">
         <v>164</v>
@@ -9839,189 +10026,221 @@
         <v>1</v>
       </c>
       <c r="H161" s="8" t="s">
-        <v>173</v>
+        <v>193</v>
       </c>
       <c r="I161" s="8"/>
       <c r="J161" s="8">
-        <f t="shared" si="4"/>
-        <v>4</v>
+        <f t="shared" si="7"/>
+        <v>2</v>
       </c>
     </row>
     <row r="162" spans="2:10">
       <c r="B162" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C162" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D162" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E162">
         <v>1</v>
       </c>
       <c r="H162" s="8" t="s">
-        <v>175</v>
+        <v>382</v>
       </c>
       <c r="I162" s="8"/>
       <c r="J162" s="8">
-        <f t="shared" si="4"/>
-        <v>7</v>
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="2:10">
       <c r="B163" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C163" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D163" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E163">
         <v>1</v>
       </c>
       <c r="H163" s="8" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="I163" s="8"/>
       <c r="J163" s="8">
-        <f t="shared" si="4"/>
-        <v>2</v>
+        <f t="shared" si="7"/>
+        <v>4</v>
       </c>
     </row>
     <row r="164" spans="2:10">
       <c r="B164" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C164" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D164" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E164">
         <v>1</v>
       </c>
       <c r="H164" s="8" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="I164" s="8"/>
       <c r="J164" s="8">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>2</v>
       </c>
     </row>
     <row r="165" spans="2:10">
       <c r="B165" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C165" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D165" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E165">
         <v>1</v>
       </c>
       <c r="H165" s="8" t="s">
-        <v>181</v>
+        <v>383</v>
       </c>
       <c r="I165" s="8"/>
       <c r="J165" s="8">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>5</v>
       </c>
     </row>
     <row r="166" spans="2:10">
       <c r="B166" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C166" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D166" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E166">
         <v>1</v>
       </c>
       <c r="H166" s="8" t="s">
-        <v>183</v>
+        <v>195</v>
       </c>
       <c r="I166" s="8"/>
       <c r="J166" s="8">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>2</v>
       </c>
     </row>
     <row r="167" spans="2:10">
       <c r="B167" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C167" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D167" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E167">
         <v>1</v>
+      </c>
+      <c r="H167" s="8" t="s">
+        <v>384</v>
+      </c>
+      <c r="I167" s="8"/>
+      <c r="J167" s="8">
+        <f t="shared" ref="J167:J170" si="8">COUNTIF($D$157:$D$189,H167)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="2:10">
       <c r="B168" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C168" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D168" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E168">
         <v>1</v>
+      </c>
+      <c r="H168" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="I168" s="8"/>
+      <c r="J168" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="2:10">
       <c r="B169" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C169" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D169" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E169">
         <v>1</v>
+      </c>
+      <c r="H169" s="8" t="s">
+        <v>385</v>
+      </c>
+      <c r="I169" s="8"/>
+      <c r="J169" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
     </row>
     <row r="170" spans="2:10">
       <c r="B170" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C170" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D170" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E170">
         <v>1</v>
+      </c>
+      <c r="H170" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="I170" s="8"/>
+      <c r="J170" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
     </row>
     <row r="171" spans="2:10">
       <c r="B171" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C171" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D171" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E171">
         <v>1</v>
@@ -10029,13 +10248,13 @@
     </row>
     <row r="172" spans="2:10">
       <c r="B172" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C172" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D172" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E172">
         <v>1</v>
@@ -10043,13 +10262,13 @@
     </row>
     <row r="173" spans="2:10">
       <c r="B173" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C173" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D173" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E173">
         <v>1</v>
@@ -10057,13 +10276,13 @@
     </row>
     <row r="174" spans="2:10">
       <c r="B174" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C174" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D174" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E174">
         <v>1</v>
@@ -10071,13 +10290,13 @@
     </row>
     <row r="175" spans="2:10">
       <c r="B175" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C175" t="s">
-        <v>346</v>
-      </c>
-      <c r="D175" t="s">
-        <v>175</v>
+        <v>345</v>
+      </c>
+      <c r="D175" s="5" t="s">
+        <v>378</v>
       </c>
       <c r="E175">
         <v>1</v>
@@ -10085,13 +10304,13 @@
     </row>
     <row r="176" spans="2:10">
       <c r="B176" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C176" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D176" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E176">
         <v>1</v>
@@ -10099,13 +10318,13 @@
     </row>
     <row r="177" spans="2:8">
       <c r="B177" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C177" t="s">
-        <v>348</v>
-      </c>
-      <c r="D177" t="s">
-        <v>175</v>
+        <v>347</v>
+      </c>
+      <c r="D177" s="5" t="s">
+        <v>378</v>
       </c>
       <c r="E177">
         <v>1</v>
@@ -10113,10 +10332,10 @@
     </row>
     <row r="178" spans="2:8">
       <c r="B178" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C178" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D178" t="s">
         <v>173</v>
@@ -10127,13 +10346,13 @@
     </row>
     <row r="179" spans="2:8">
       <c r="B179" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C179" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D179" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E179">
         <v>1</v>
@@ -10141,13 +10360,13 @@
     </row>
     <row r="180" spans="2:8">
       <c r="B180" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C180" t="s">
-        <v>351</v>
-      </c>
-      <c r="D180" t="s">
-        <v>175</v>
+        <v>350</v>
+      </c>
+      <c r="D180" s="5" t="s">
+        <v>378</v>
       </c>
       <c r="E180">
         <v>1</v>
@@ -10155,10 +10374,10 @@
     </row>
     <row r="181" spans="2:8">
       <c r="B181" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C181" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D181" t="s">
         <v>173</v>
@@ -10169,10 +10388,10 @@
     </row>
     <row r="182" spans="2:8">
       <c r="B182" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C182" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D182" t="s">
         <v>175</v>
@@ -10183,10 +10402,10 @@
     </row>
     <row r="183" spans="2:8">
       <c r="B183" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C183" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D183" t="s">
         <v>173</v>
@@ -10197,10 +10416,10 @@
     </row>
     <row r="184" spans="2:8">
       <c r="B184" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C184" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D184" t="s">
         <v>173</v>
@@ -10211,13 +10430,13 @@
     </row>
     <row r="185" spans="2:8">
       <c r="B185" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C185" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D185" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E185">
         <v>1</v>
@@ -10225,13 +10444,13 @@
     </row>
     <row r="186" spans="2:8">
       <c r="B186" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C186" t="s">
-        <v>357</v>
-      </c>
-      <c r="D186" t="s">
-        <v>175</v>
+        <v>356</v>
+      </c>
+      <c r="D186" s="5" t="s">
+        <v>378</v>
       </c>
       <c r="E186">
         <v>1</v>
@@ -10239,10 +10458,10 @@
     </row>
     <row r="187" spans="2:8">
       <c r="B187" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C187" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D187" t="s">
         <v>175</v>
@@ -10253,10 +10472,10 @@
     </row>
     <row r="188" spans="2:8">
       <c r="B188" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C188" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D188" t="s">
         <v>164</v>
@@ -10267,13 +10486,13 @@
     </row>
     <row r="189" spans="2:8">
       <c r="B189" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C189" t="s">
-        <v>360</v>
-      </c>
-      <c r="D189" t="s">
-        <v>175</v>
+        <v>359</v>
+      </c>
+      <c r="D189" s="5" t="s">
+        <v>378</v>
       </c>
       <c r="E189">
         <v>1</v>
@@ -10281,13 +10500,13 @@
     </row>
     <row r="192" spans="2:8">
       <c r="B192" t="s">
+        <v>360</v>
+      </c>
+      <c r="C192" t="s">
         <v>361</v>
       </c>
-      <c r="C192" t="s">
-        <v>362</v>
-      </c>
       <c r="D192" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E192">
         <v>1</v>
@@ -10299,19 +10518,19 @@
     </row>
     <row r="193" spans="2:10">
       <c r="B193" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C193" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D193" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E193">
         <v>1</v>
       </c>
       <c r="H193" s="8" t="s">
-        <v>165</v>
+        <v>198</v>
       </c>
       <c r="I193" s="8"/>
       <c r="J193" s="8">
@@ -10321,91 +10540,131 @@
     </row>
     <row r="194" spans="2:10">
       <c r="H194" s="8" t="s">
-        <v>168</v>
+        <v>200</v>
       </c>
       <c r="I194" s="8"/>
       <c r="J194" s="8">
-        <f t="shared" ref="J194:J202" si="5">COUNTIF($D$192:$D$193,H194)</f>
+        <f t="shared" ref="J194:J202" si="9">COUNTIF($D$192:$D$193,H194)</f>
         <v>0</v>
       </c>
     </row>
     <row r="195" spans="2:10">
       <c r="H195" s="8" t="s">
-        <v>164</v>
+        <v>381</v>
       </c>
       <c r="I195" s="8"/>
       <c r="J195" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="196" spans="2:10">
       <c r="H196" s="8" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="I196" s="8"/>
       <c r="J196" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="197" spans="2:10">
       <c r="H197" s="8" t="s">
-        <v>173</v>
+        <v>193</v>
       </c>
       <c r="I197" s="8"/>
       <c r="J197" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="198" spans="2:10">
       <c r="H198" s="8" t="s">
-        <v>175</v>
+        <v>382</v>
       </c>
       <c r="I198" s="8"/>
       <c r="J198" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="199" spans="2:10">
       <c r="H199" s="8" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="I199" s="8"/>
       <c r="J199" s="8">
-        <f t="shared" si="5"/>
-        <v>2</v>
+        <f t="shared" si="9"/>
+        <v>0</v>
       </c>
     </row>
     <row r="200" spans="2:10">
       <c r="H200" s="8" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="I200" s="8"/>
       <c r="J200" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="201" spans="2:10">
       <c r="H201" s="8" t="s">
-        <v>181</v>
+        <v>383</v>
       </c>
       <c r="I201" s="8"/>
       <c r="J201" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="202" spans="2:10">
       <c r="H202" s="8" t="s">
-        <v>183</v>
+        <v>195</v>
       </c>
       <c r="I202" s="8"/>
       <c r="J202" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="203" spans="2:10">
+      <c r="H203" s="8" t="s">
+        <v>384</v>
+      </c>
+      <c r="I203" s="8"/>
+      <c r="J203" s="8">
+        <f t="shared" ref="J203:J206" si="10">COUNTIF($D$192:$D$193,H203)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="2:10">
+      <c r="H204" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="I204" s="8"/>
+      <c r="J204" s="8">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="2:10">
+      <c r="H205" s="8" t="s">
+        <v>385</v>
+      </c>
+      <c r="I205" s="8"/>
+      <c r="J205" s="8">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="2:10">
+      <c r="H206" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="I206" s="8"/>
+      <c r="J206" s="8">
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -10417,16 +10676,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B4:J75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C90" sqref="C90"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="4" max="4" width="30.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.19921875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="32.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -10438,16 +10697,16 @@
     </row>
     <row r="5" spans="2:10">
       <c r="B5" t="s">
+        <v>363</v>
+      </c>
+      <c r="C5" t="s">
         <v>364</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>365</v>
       </c>
-      <c r="D5" t="s">
+      <c r="H5" s="8" t="s">
         <v>366</v>
-      </c>
-      <c r="H5" s="8" t="s">
-        <v>367</v>
       </c>
       <c r="I5" s="8"/>
       <c r="J5" s="8">
@@ -10457,10 +10716,10 @@
     </row>
     <row r="6" spans="2:10">
       <c r="D6" t="s">
+        <v>367</v>
+      </c>
+      <c r="H6" s="8" t="s">
         <v>368</v>
-      </c>
-      <c r="H6" s="8" t="s">
-        <v>369</v>
       </c>
       <c r="I6" s="8"/>
       <c r="J6" s="8">
@@ -10470,10 +10729,10 @@
     </row>
     <row r="7" spans="2:10">
       <c r="D7" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="I7" s="8"/>
       <c r="J7" s="8">
@@ -10483,10 +10742,10 @@
     </row>
     <row r="8" spans="2:10">
       <c r="D8" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="I8" s="8"/>
       <c r="J8" s="8">
@@ -10496,10 +10755,10 @@
     </row>
     <row r="9" spans="2:10">
       <c r="D9" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="I9" s="8"/>
       <c r="J9" s="8">
@@ -10509,7 +10768,7 @@
     </row>
     <row r="10" spans="2:10">
       <c r="D10" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H10" s="8"/>
       <c r="I10" s="8"/>
@@ -10517,97 +10776,97 @@
     </row>
     <row r="11" spans="2:10">
       <c r="D11" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="12" spans="2:10">
       <c r="D12" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="13" spans="2:10">
       <c r="D13" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="14" spans="2:10">
       <c r="D14" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="15" spans="2:10">
       <c r="D15" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="16" spans="2:10">
       <c r="D16" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="17" spans="2:10">
       <c r="D17" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="18" spans="2:10">
       <c r="D18" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="19" spans="2:10">
       <c r="D19" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="20" spans="2:10">
       <c r="D20" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="21" spans="2:10">
       <c r="D21" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="22" spans="2:10">
       <c r="D22" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="23" spans="2:10">
       <c r="D23" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="24" spans="2:10">
       <c r="D24" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="25" spans="2:10">
       <c r="D25" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="26" spans="2:10">
       <c r="D26" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="27" spans="2:10">
       <c r="D27" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="28" spans="2:10">
       <c r="D28" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="29" spans="2:10">
       <c r="D29" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="31" spans="2:10">
@@ -10618,16 +10877,16 @@
     </row>
     <row r="32" spans="2:10">
       <c r="B32" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C32" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D32" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H32" s="8" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="I32" s="8"/>
       <c r="J32" s="8">
@@ -10637,10 +10896,10 @@
     </row>
     <row r="33" spans="4:10">
       <c r="D33" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H33" s="8" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="I33" s="8"/>
       <c r="J33" s="8">
@@ -10650,10 +10909,10 @@
     </row>
     <row r="34" spans="4:10">
       <c r="D34" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H34" s="8" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="I34" s="8"/>
       <c r="J34" s="8">
@@ -10663,10 +10922,10 @@
     </row>
     <row r="35" spans="4:10">
       <c r="D35" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H35" s="8" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="I35" s="8"/>
       <c r="J35" s="8">
@@ -10676,10 +10935,10 @@
     </row>
     <row r="36" spans="4:10">
       <c r="D36" t="s">
+        <v>370</v>
+      </c>
+      <c r="H36" s="8" t="s">
         <v>371</v>
-      </c>
-      <c r="H36" s="8" t="s">
-        <v>372</v>
       </c>
       <c r="I36" s="8"/>
       <c r="J36" s="8">
@@ -10689,7 +10948,7 @@
     </row>
     <row r="37" spans="4:10">
       <c r="D37" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H37" s="8"/>
       <c r="I37" s="8"/>
@@ -10697,77 +10956,77 @@
     </row>
     <row r="38" spans="4:10">
       <c r="D38" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="39" spans="4:10">
       <c r="D39" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="40" spans="4:10">
       <c r="D40" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="41" spans="4:10">
       <c r="D41" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="42" spans="4:10">
       <c r="D42" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="43" spans="4:10">
       <c r="D43" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="44" spans="4:10">
       <c r="D44" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="45" spans="4:10">
       <c r="D45" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="46" spans="4:10">
       <c r="D46" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="47" spans="4:10">
       <c r="D47" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="48" spans="4:10">
       <c r="D48" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="49" spans="2:10">
       <c r="D49" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="50" spans="2:10">
       <c r="D50" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="51" spans="2:10">
       <c r="D51" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="52" spans="2:10">
       <c r="D52" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="54" spans="2:10">
@@ -10778,16 +11037,16 @@
     </row>
     <row r="55" spans="2:10">
       <c r="B55" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C55" t="s">
+        <v>374</v>
+      </c>
+      <c r="D55" t="s">
+        <v>368</v>
+      </c>
+      <c r="H55" s="8" t="s">
         <v>375</v>
-      </c>
-      <c r="D55" t="s">
-        <v>369</v>
-      </c>
-      <c r="H55" s="8" t="s">
-        <v>376</v>
       </c>
       <c r="I55" s="8"/>
       <c r="J55" s="8">
@@ -10797,10 +11056,10 @@
     </row>
     <row r="56" spans="2:10">
       <c r="D56" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H56" s="8" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="I56" s="8"/>
       <c r="J56" s="8">
@@ -10810,10 +11069,10 @@
     </row>
     <row r="57" spans="2:10">
       <c r="D57" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H57" s="8" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="I57" s="8"/>
       <c r="J57" s="8">
@@ -10823,10 +11082,10 @@
     </row>
     <row r="58" spans="2:10">
       <c r="D58" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H58" s="8" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="I58" s="8"/>
       <c r="J58" s="8">
@@ -10836,10 +11095,10 @@
     </row>
     <row r="59" spans="2:10">
       <c r="D59" t="s">
+        <v>370</v>
+      </c>
+      <c r="H59" s="8" t="s">
         <v>371</v>
-      </c>
-      <c r="H59" s="8" t="s">
-        <v>372</v>
       </c>
       <c r="I59" s="8"/>
       <c r="J59" s="8">
@@ -10849,7 +11108,7 @@
     </row>
     <row r="60" spans="2:10">
       <c r="D60" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H60" s="8"/>
       <c r="I60" s="8"/>
@@ -10857,77 +11116,77 @@
     </row>
     <row r="61" spans="2:10">
       <c r="D61" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="62" spans="2:10">
       <c r="D62" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="63" spans="2:10">
       <c r="D63" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="64" spans="2:10">
       <c r="D64" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="65" spans="4:4">
       <c r="D65" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="66" spans="4:4">
       <c r="D66" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="67" spans="4:4">
       <c r="D67" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="68" spans="4:4">
       <c r="D68" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="69" spans="4:4">
       <c r="D69" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="70" spans="4:4">
       <c r="D70" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="71" spans="4:4">
       <c r="D71" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="72" spans="4:4">
       <c r="D72" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="73" spans="4:4">
       <c r="D73" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="74" spans="4:4">
       <c r="D74" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="75" spans="4:4">
       <c r="D75" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
   </sheetData>
